--- a/bioSample/bioSample_0673.xlsx
+++ b/bioSample/bioSample_0673.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber </t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>

--- a/bioSample/bioSample_0673.xlsx
+++ b/bioSample/bioSample_0673.xlsx
@@ -214,7 +214,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -260,7 +260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
@@ -268,7 +268,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>14</v>
@@ -289,7 +289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
@@ -297,7 +297,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2</v>
+        <v>176</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>14</v>
@@ -318,7 +318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
@@ -326,7 +326,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>14</v>
@@ -347,7 +347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
@@ -355,7 +355,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>14</v>
@@ -376,7 +376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
@@ -384,7 +384,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>14</v>
@@ -405,7 +405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
@@ -413,7 +413,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>14</v>
@@ -434,7 +434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
@@ -442,7 +442,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>14</v>
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
@@ -471,7 +471,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>14</v>
@@ -492,7 +492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
@@ -500,7 +500,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>14</v>
@@ -521,7 +521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>22</v>
       </c>
@@ -529,7 +529,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>14</v>
@@ -550,7 +550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>22</v>
       </c>
@@ -558,7 +558,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>14</v>
@@ -579,7 +579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>22</v>
       </c>
@@ -587,7 +587,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>14</v>
@@ -608,7 +608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>22</v>
       </c>
@@ -616,7 +616,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>14</v>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>22</v>
       </c>
@@ -645,7 +645,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>14</v>
@@ -666,7 +666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>22</v>
       </c>
@@ -674,7 +674,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>14</v>

--- a/bioSample/bioSample_0673.xlsx
+++ b/bioSample/bioSample_0673.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0076637B-47C5-524B-A9D9-21D1A0CB20B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA07957-E476-EB45-A96A-A0349C81B094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="22">
   <si>
     <t>harvestDate</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>90minuteInduction</t>
-  </si>
-  <si>
-    <t>KN99alpha</t>
   </si>
   <si>
     <t>CNAG_00000</t>
@@ -474,7 +471,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E13"/>
+      <selection activeCell="E12" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -525,13 +522,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>90</v>
@@ -554,13 +551,13 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>90</v>
@@ -583,13 +580,13 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>90</v>
@@ -612,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>90</v>
@@ -641,13 +638,13 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>90</v>
@@ -670,13 +667,13 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <v>90</v>
@@ -699,13 +696,13 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8">
         <v>90</v>
@@ -728,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>90</v>
@@ -757,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>90</v>
@@ -774,7 +771,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -786,13 +783,13 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <v>90</v>
@@ -803,7 +800,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -815,13 +812,13 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12">
         <v>90</v>
@@ -832,7 +829,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -844,13 +841,13 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13">
         <v>90</v>
@@ -861,7 +858,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -873,13 +870,13 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14">
         <v>90</v>
@@ -890,7 +887,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -902,13 +899,13 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
         <v>20</v>
       </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15">
         <v>90</v>
@@ -919,7 +916,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -931,13 +928,13 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
         <v>20</v>
       </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16">
         <v>90</v>
